--- a/team_specific_matrix/Oakland_B.xlsx
+++ b/team_specific_matrix/Oakland_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1684210526315789</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="C2">
-        <v>0.6</v>
+        <v>0.5727272727272728</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01578947368421053</v>
+        <v>0.01363636363636364</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.131578947368421</v>
+        <v>0.1454545454545454</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08421052631578947</v>
+        <v>0.08636363636363636</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.05042016806722689</v>
+        <v>0.05303030303030303</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04201680672268908</v>
+        <v>0.03787878787878788</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7310924369747899</v>
+        <v>0.7121212121212122</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1764705882352941</v>
+        <v>0.196969696969697</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03571428571428571</v>
+        <v>0.0625</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6428571428571429</v>
+        <v>0.59375</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3214285714285715</v>
+        <v>0.34375</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06748466257668712</v>
+        <v>0.07537688442211055</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.005025125628140704</v>
       </c>
       <c r="F6">
-        <v>0.0736196319018405</v>
+        <v>0.07035175879396985</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2024539877300613</v>
+        <v>0.2110552763819095</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01226993865030675</v>
+        <v>0.01005025125628141</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1349693251533742</v>
+        <v>0.1407035175879397</v>
       </c>
       <c r="R6">
-        <v>0.08588957055214724</v>
+        <v>0.07537688442211055</v>
       </c>
       <c r="S6">
-        <v>0.4233128834355828</v>
+        <v>0.4120603015075377</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1</v>
+        <v>0.08791208791208792</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0125</v>
+        <v>0.01098901098901099</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.03125</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.16875</v>
+        <v>0.1593406593406593</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01875</v>
+        <v>0.01648351648351648</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.19375</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="R7">
-        <v>0.11875</v>
+        <v>0.1098901098901099</v>
       </c>
       <c r="S7">
-        <v>0.35625</v>
+        <v>0.3846153846153846</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07027027027027027</v>
+        <v>0.06728538283062645</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01891891891891892</v>
+        <v>0.01624129930394431</v>
       </c>
       <c r="E8">
-        <v>0.002702702702702703</v>
+        <v>0.002320185614849188</v>
       </c>
       <c r="F8">
-        <v>0.04324324324324325</v>
+        <v>0.04408352668213457</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1</v>
+        <v>0.1044083526682135</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01081081081081081</v>
+        <v>0.01160092807424594</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1540540540540541</v>
+        <v>0.1624129930394431</v>
       </c>
       <c r="R8">
-        <v>0.1324324324324324</v>
+        <v>0.1206496519721578</v>
       </c>
       <c r="S8">
-        <v>0.4675675675675676</v>
+        <v>0.4709976798143852</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08648648648648649</v>
+        <v>0.09047619047619047</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01081081081081081</v>
+        <v>0.009523809523809525</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07027027027027027</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1621621621621622</v>
+        <v>0.1571428571428571</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01621621621621622</v>
+        <v>0.01904761904761905</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1891891891891892</v>
+        <v>0.1761904761904762</v>
       </c>
       <c r="R9">
-        <v>0.08648648648648649</v>
+        <v>0.09047619047619047</v>
       </c>
       <c r="S9">
-        <v>0.3783783783783784</v>
+        <v>0.3857142857142857</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09024896265560166</v>
+        <v>0.08653846153846154</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01970954356846473</v>
+        <v>0.0201048951048951</v>
       </c>
       <c r="E10">
-        <v>0.001037344398340249</v>
+        <v>0.0008741258741258741</v>
       </c>
       <c r="F10">
-        <v>0.07261410788381743</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1016597510373444</v>
+        <v>0.1031468531468532</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01037344398340249</v>
+        <v>0.01223776223776224</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2219917012448133</v>
+        <v>0.2246503496503497</v>
       </c>
       <c r="R10">
-        <v>0.0954356846473029</v>
+        <v>0.0944055944055944</v>
       </c>
       <c r="S10">
-        <v>0.3869294605809129</v>
+        <v>0.3811188811188811</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1171171171171171</v>
+        <v>0.1178707224334601</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0945945945945946</v>
+        <v>0.1026615969581749</v>
       </c>
       <c r="K11">
-        <v>0.1801801801801802</v>
+        <v>0.1787072243346008</v>
       </c>
       <c r="L11">
-        <v>0.6081081081081081</v>
+        <v>0.6007604562737643</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7659574468085106</v>
+        <v>0.7590361445783133</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1773049645390071</v>
+        <v>0.1807228915662651</v>
       </c>
       <c r="K12">
-        <v>0.01418439716312057</v>
+        <v>0.01807228915662651</v>
       </c>
       <c r="L12">
-        <v>0.0425531914893617</v>
+        <v>0.04216867469879518</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7804878048780488</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2195121951219512</v>
+        <v>0.2444444444444444</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>0.02222222222222222</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01136363636363636</v>
+        <v>0.01408450704225352</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1647727272727273</v>
+        <v>0.1643192488262911</v>
       </c>
       <c r="I15">
-        <v>0.1079545454545455</v>
+        <v>0.1220657276995305</v>
       </c>
       <c r="J15">
-        <v>0.3352272727272727</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K15">
-        <v>0.1079545454545455</v>
+        <v>0.107981220657277</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02840909090909091</v>
+        <v>0.02347417840375587</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.03409090909090909</v>
+        <v>0.03755868544600939</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2102272727272727</v>
+        <v>0.1971830985915493</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.007936507936507936</v>
+        <v>0.01408450704225352</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1904761904761905</v>
+        <v>0.1901408450704225</v>
       </c>
       <c r="I16">
-        <v>0.1031746031746032</v>
+        <v>0.09859154929577464</v>
       </c>
       <c r="J16">
-        <v>0.3809523809523809</v>
+        <v>0.3873239436619718</v>
       </c>
       <c r="K16">
-        <v>0.119047619047619</v>
+        <v>0.1197183098591549</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03968253968253968</v>
+        <v>0.0352112676056338</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.07936507936507936</v>
+        <v>0.07746478873239436</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.07936507936507936</v>
+        <v>0.07746478873239436</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.0223463687150838</v>
+        <v>0.02117647058823529</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1787709497206704</v>
+        <v>0.1788235294117647</v>
       </c>
       <c r="I17">
-        <v>0.09776536312849161</v>
+        <v>0.08941176470588236</v>
       </c>
       <c r="J17">
-        <v>0.3966480446927375</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="K17">
-        <v>0.08379888268156424</v>
+        <v>0.08235294117647059</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02513966480446927</v>
+        <v>0.02117647058823529</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06424581005586592</v>
+        <v>0.06823529411764706</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1312849162011173</v>
+        <v>0.1270588235294118</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01587301587301587</v>
+        <v>0.01408450704225352</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1693121693121693</v>
+        <v>0.1830985915492958</v>
       </c>
       <c r="I18">
-        <v>0.0582010582010582</v>
+        <v>0.05633802816901409</v>
       </c>
       <c r="J18">
-        <v>0.4391534391534391</v>
+        <v>0.431924882629108</v>
       </c>
       <c r="K18">
-        <v>0.07936507936507936</v>
+        <v>0.08450704225352113</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02645502645502645</v>
+        <v>0.02347417840375587</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06349206349206349</v>
+        <v>0.06103286384976526</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1481481481481481</v>
+        <v>0.1455399061032864</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01083743842364532</v>
+        <v>0.01252086811352254</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2216748768472906</v>
+        <v>0.2161936560934891</v>
       </c>
       <c r="I19">
-        <v>0.1073891625615764</v>
+        <v>0.1018363939899833</v>
       </c>
       <c r="J19">
-        <v>0.3448275862068966</v>
+        <v>0.345575959933222</v>
       </c>
       <c r="K19">
-        <v>0.09359605911330049</v>
+        <v>0.09599332220367279</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0187192118226601</v>
+        <v>0.01919866444073456</v>
       </c>
       <c r="N19">
-        <v>0.003940886699507389</v>
+        <v>0.00333889816360601</v>
       </c>
       <c r="O19">
-        <v>0.08374384236453201</v>
+        <v>0.08347245409015025</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1152709359605911</v>
+        <v>0.1218697829716194</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Oakland_B.xlsx
+++ b/team_specific_matrix/Oakland_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1818181818181818</v>
+        <v>0.1782608695652174</v>
       </c>
       <c r="C2">
-        <v>0.5727272727272728</v>
+        <v>0.5782608695652174</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01363636363636364</v>
+        <v>0.01304347826086956</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1454545454545454</v>
+        <v>0.1391304347826087</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08636363636363636</v>
+        <v>0.09130434782608696</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.05303030303030303</v>
+        <v>0.05035971223021583</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03787878787878788</v>
+        <v>0.03597122302158273</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7121212121212122</v>
+        <v>0.7194244604316546</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.196969696969697</v>
+        <v>0.1942446043165468</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07537688442211055</v>
+        <v>0.07246376811594203</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.005025125628140704</v>
+        <v>0.004830917874396135</v>
       </c>
       <c r="F6">
-        <v>0.07035175879396985</v>
+        <v>0.06763285024154589</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2110552763819095</v>
+        <v>0.21256038647343</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01005025125628141</v>
+        <v>0.00966183574879227</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1407035175879397</v>
+        <v>0.1594202898550725</v>
       </c>
       <c r="R6">
-        <v>0.07537688442211055</v>
+        <v>0.07246376811594203</v>
       </c>
       <c r="S6">
-        <v>0.4120603015075377</v>
+        <v>0.4009661835748792</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08791208791208792</v>
+        <v>0.08465608465608465</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01098901098901099</v>
+        <v>0.01058201058201058</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.03846153846153846</v>
+        <v>0.04232804232804233</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1593406593406593</v>
+        <v>0.1587301587301587</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01648351648351648</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1923076923076923</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="R7">
-        <v>0.1098901098901099</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="S7">
-        <v>0.3846153846153846</v>
+        <v>0.3862433862433862</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.06728538283062645</v>
+        <v>0.07158836689038031</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01624129930394431</v>
+        <v>0.01565995525727069</v>
       </c>
       <c r="E8">
-        <v>0.002320185614849188</v>
+        <v>0.002237136465324385</v>
       </c>
       <c r="F8">
-        <v>0.04408352668213457</v>
+        <v>0.04250559284116331</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1044083526682135</v>
+        <v>0.1051454138702461</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01160092807424594</v>
+        <v>0.01118568232662192</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1624129930394431</v>
+        <v>0.1677852348993289</v>
       </c>
       <c r="R8">
-        <v>0.1206496519721578</v>
+        <v>0.1208053691275168</v>
       </c>
       <c r="S8">
-        <v>0.4709976798143852</v>
+        <v>0.4630872483221476</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09047619047619047</v>
+        <v>0.08755760368663594</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.009523809523809525</v>
+        <v>0.009216589861751152</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07142857142857142</v>
+        <v>0.06912442396313365</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1571428571428571</v>
+        <v>0.1612903225806452</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01904761904761905</v>
+        <v>0.0184331797235023</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1761904761904762</v>
+        <v>0.1751152073732719</v>
       </c>
       <c r="R9">
-        <v>0.09047619047619047</v>
+        <v>0.09216589861751152</v>
       </c>
       <c r="S9">
-        <v>0.3857142857142857</v>
+        <v>0.3870967741935484</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,16 +970,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.08653846153846154</v>
+        <v>0.08779264214046822</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0201048951048951</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="E10">
-        <v>0.0008741258741258741</v>
+        <v>0.0008361204013377926</v>
       </c>
       <c r="F10">
         <v>0.07692307692307693</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1031468531468532</v>
+        <v>0.1011705685618729</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01223776223776224</v>
+        <v>0.01254180602006689</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2246503496503497</v>
+        <v>0.2282608695652174</v>
       </c>
       <c r="R10">
-        <v>0.0944055944055944</v>
+        <v>0.09448160535117058</v>
       </c>
       <c r="S10">
-        <v>0.3811188811188811</v>
+        <v>0.3787625418060201</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1178707224334601</v>
+        <v>0.1180811808118081</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1026615969581749</v>
+        <v>0.1033210332103321</v>
       </c>
       <c r="K11">
-        <v>0.1787072243346008</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="L11">
-        <v>0.6007604562737643</v>
+        <v>0.5977859778597786</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7590361445783133</v>
+        <v>0.7660818713450293</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1807228915662651</v>
+        <v>0.1754385964912281</v>
       </c>
       <c r="K12">
-        <v>0.01807228915662651</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="L12">
-        <v>0.04216867469879518</v>
+        <v>0.04093567251461988</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7333333333333333</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2444444444444444</v>
+        <v>0.2391304347826087</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02222222222222222</v>
+        <v>0.02173913043478261</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01408450704225352</v>
+        <v>0.01376146788990826</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1643192488262911</v>
+        <v>0.1605504587155963</v>
       </c>
       <c r="I15">
-        <v>0.1220657276995305</v>
+        <v>0.1192660550458716</v>
       </c>
       <c r="J15">
-        <v>0.3333333333333333</v>
+        <v>0.3394495412844037</v>
       </c>
       <c r="K15">
-        <v>0.107981220657277</v>
+        <v>0.1055045871559633</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02347417840375587</v>
+        <v>0.02293577981651376</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.03755868544600939</v>
+        <v>0.03669724770642202</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1971830985915493</v>
+        <v>0.2018348623853211</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01408450704225352</v>
+        <v>0.01351351351351351</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1901408450704225</v>
+        <v>0.1891891891891892</v>
       </c>
       <c r="I16">
-        <v>0.09859154929577464</v>
+        <v>0.1013513513513514</v>
       </c>
       <c r="J16">
-        <v>0.3873239436619718</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="K16">
-        <v>0.1197183098591549</v>
+        <v>0.1216216216216216</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0352112676056338</v>
+        <v>0.03378378378378379</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.07746478873239436</v>
+        <v>0.07432432432432433</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.07746478873239436</v>
+        <v>0.08783783783783784</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02117647058823529</v>
+        <v>0.02207505518763797</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1788235294117647</v>
+        <v>0.17439293598234</v>
       </c>
       <c r="I17">
-        <v>0.08941176470588236</v>
+        <v>0.09050772626931568</v>
       </c>
       <c r="J17">
-        <v>0.4117647058823529</v>
+        <v>0.4194260485651214</v>
       </c>
       <c r="K17">
-        <v>0.08235294117647059</v>
+        <v>0.07947019867549669</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02117647058823529</v>
+        <v>0.02207505518763797</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.002207505518763797</v>
       </c>
       <c r="O17">
-        <v>0.06823529411764706</v>
+        <v>0.0640176600441501</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1270588235294118</v>
+        <v>0.1258278145695364</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01408450704225352</v>
+        <v>0.01357466063348416</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1830985915492958</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="I18">
-        <v>0.05633802816901409</v>
+        <v>0.05429864253393665</v>
       </c>
       <c r="J18">
-        <v>0.431924882629108</v>
+        <v>0.4434389140271493</v>
       </c>
       <c r="K18">
-        <v>0.08450704225352113</v>
+        <v>0.08144796380090498</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02347417840375587</v>
+        <v>0.02262443438914027</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06103286384976526</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1455399061032864</v>
+        <v>0.1493212669683258</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01252086811352254</v>
+        <v>0.01288244766505636</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2161936560934891</v>
+        <v>0.2181964573268921</v>
       </c>
       <c r="I19">
-        <v>0.1018363939899833</v>
+        <v>0.1014492753623188</v>
       </c>
       <c r="J19">
-        <v>0.345575959933222</v>
+        <v>0.3454106280193237</v>
       </c>
       <c r="K19">
-        <v>0.09599332220367279</v>
+        <v>0.09581320450885668</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01919866444073456</v>
+        <v>0.01932367149758454</v>
       </c>
       <c r="N19">
-        <v>0.00333889816360601</v>
+        <v>0.00322061191626409</v>
       </c>
       <c r="O19">
-        <v>0.08347245409015025</v>
+        <v>0.08293075684380032</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1218697829716194</v>
+        <v>0.1207729468599034</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Oakland_B.xlsx
+++ b/team_specific_matrix/Oakland_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1782608695652174</v>
+        <v>0.1686274509803922</v>
       </c>
       <c r="C2">
-        <v>0.5782608695652174</v>
+        <v>0.596078431372549</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01304347826086956</v>
+        <v>0.01176470588235294</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1391304347826087</v>
+        <v>0.1372549019607843</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09130434782608696</v>
+        <v>0.08627450980392157</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.05035971223021583</v>
+        <v>0.04430379746835443</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03597122302158273</v>
+        <v>0.0379746835443038</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7194244604316546</v>
+        <v>0.7341772151898734</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1942446043165468</v>
+        <v>0.1835443037974684</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0625</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.59375</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.34375</v>
+        <v>0.3142857142857143</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07246376811594203</v>
+        <v>0.06986899563318777</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.004830917874396135</v>
+        <v>0.004366812227074236</v>
       </c>
       <c r="F6">
-        <v>0.06763285024154589</v>
+        <v>0.07423580786026202</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.21256038647343</v>
+        <v>0.2096069868995633</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.00966183574879227</v>
+        <v>0.01310043668122271</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1594202898550725</v>
+        <v>0.1572052401746725</v>
       </c>
       <c r="R6">
-        <v>0.07246376811594203</v>
+        <v>0.07423580786026202</v>
       </c>
       <c r="S6">
-        <v>0.4009661835748792</v>
+        <v>0.3973799126637554</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08465608465608465</v>
+        <v>0.08415841584158416</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01058201058201058</v>
+        <v>0.009900990099009901</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04232804232804233</v>
+        <v>0.0396039603960396</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1587301587301587</v>
+        <v>0.1534653465346535</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01587301587301587</v>
+        <v>0.01485148514851485</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1904761904761905</v>
+        <v>0.1930693069306931</v>
       </c>
       <c r="R7">
-        <v>0.1111111111111111</v>
+        <v>0.1089108910891089</v>
       </c>
       <c r="S7">
-        <v>0.3862433862433862</v>
+        <v>0.3960396039603961</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07158836689038031</v>
+        <v>0.07218683651804671</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01565995525727069</v>
+        <v>0.0148619957537155</v>
       </c>
       <c r="E8">
-        <v>0.002237136465324385</v>
+        <v>0.002123142250530786</v>
       </c>
       <c r="F8">
-        <v>0.04250559284116331</v>
+        <v>0.04883227176220807</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1051454138702461</v>
+        <v>0.1019108280254777</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01118568232662192</v>
+        <v>0.0148619957537155</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1677852348993289</v>
+        <v>0.1656050955414013</v>
       </c>
       <c r="R8">
-        <v>0.1208053691275168</v>
+        <v>0.118895966029724</v>
       </c>
       <c r="S8">
-        <v>0.4630872483221476</v>
+        <v>0.4607218683651805</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08755760368663594</v>
+        <v>0.09243697478991597</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.009216589861751152</v>
+        <v>0.01260504201680672</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06912442396313365</v>
+        <v>0.07563025210084033</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1612903225806452</v>
+        <v>0.1596638655462185</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.0184331797235023</v>
+        <v>0.01680672268907563</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1751152073732719</v>
+        <v>0.180672268907563</v>
       </c>
       <c r="R9">
-        <v>0.09216589861751152</v>
+        <v>0.1008403361344538</v>
       </c>
       <c r="S9">
-        <v>0.3870967741935484</v>
+        <v>0.361344537815126</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.08779264214046822</v>
+        <v>0.09467918622848201</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01923076923076923</v>
+        <v>0.01956181533646323</v>
       </c>
       <c r="E10">
-        <v>0.0008361204013377926</v>
+        <v>0.000782472613458529</v>
       </c>
       <c r="F10">
-        <v>0.07692307692307693</v>
+        <v>0.0782472613458529</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1011705685618729</v>
+        <v>0.1032863849765258</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01254180602006689</v>
+        <v>0.01251956181533646</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2282608695652174</v>
+        <v>0.2237871674491393</v>
       </c>
       <c r="R10">
-        <v>0.09448160535117058</v>
+        <v>0.09389671361502347</v>
       </c>
       <c r="S10">
-        <v>0.3787625418060201</v>
+        <v>0.3732394366197183</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1180811808118081</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1033210332103321</v>
+        <v>0.1003460207612457</v>
       </c>
       <c r="K11">
-        <v>0.1808118081180812</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="L11">
-        <v>0.5977859778597786</v>
+        <v>0.6055363321799307</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7660818713450293</v>
+        <v>0.7663043478260869</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1754385964912281</v>
+        <v>0.1793478260869565</v>
       </c>
       <c r="K12">
-        <v>0.01754385964912281</v>
+        <v>0.01630434782608696</v>
       </c>
       <c r="L12">
-        <v>0.04093567251461988</v>
+        <v>0.03804347826086957</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7391304347826086</v>
+        <v>0.7346938775510204</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2391304347826087</v>
+        <v>0.2448979591836735</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02173913043478261</v>
+        <v>0.02040816326530612</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01376146788990826</v>
+        <v>0.01687763713080169</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1605504587155963</v>
+        <v>0.1645569620253164</v>
       </c>
       <c r="I15">
-        <v>0.1192660550458716</v>
+        <v>0.1181434599156118</v>
       </c>
       <c r="J15">
-        <v>0.3394495412844037</v>
+        <v>0.3248945147679325</v>
       </c>
       <c r="K15">
-        <v>0.1055045871559633</v>
+        <v>0.1012658227848101</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02293577981651376</v>
+        <v>0.02109704641350211</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.03669724770642202</v>
+        <v>0.0379746835443038</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2018348623853211</v>
+        <v>0.2151898734177215</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01351351351351351</v>
+        <v>0.01775147928994083</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1891891891891892</v>
+        <v>0.1715976331360947</v>
       </c>
       <c r="I16">
-        <v>0.1013513513513514</v>
+        <v>0.08875739644970414</v>
       </c>
       <c r="J16">
-        <v>0.3783783783783784</v>
+        <v>0.3905325443786982</v>
       </c>
       <c r="K16">
-        <v>0.1216216216216216</v>
+        <v>0.1242603550295858</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03378378378378379</v>
+        <v>0.02958579881656805</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.07432432432432433</v>
+        <v>0.07100591715976332</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.08783783783783784</v>
+        <v>0.106508875739645</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02207505518763797</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.17439293598234</v>
+        <v>0.1729166666666667</v>
       </c>
       <c r="I17">
-        <v>0.09050772626931568</v>
+        <v>0.09583333333333334</v>
       </c>
       <c r="J17">
-        <v>0.4194260485651214</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="K17">
-        <v>0.07947019867549669</v>
+        <v>0.07708333333333334</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02207505518763797</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="N17">
-        <v>0.002207505518763797</v>
+        <v>0.002083333333333333</v>
       </c>
       <c r="O17">
-        <v>0.0640176600441501</v>
+        <v>0.07083333333333333</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1258278145695364</v>
+        <v>0.1229166666666667</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01357466063348416</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1764705882352941</v>
+        <v>0.1772151898734177</v>
       </c>
       <c r="I18">
-        <v>0.05429864253393665</v>
+        <v>0.05063291139240506</v>
       </c>
       <c r="J18">
-        <v>0.4434389140271493</v>
+        <v>0.4261603375527426</v>
       </c>
       <c r="K18">
-        <v>0.08144796380090498</v>
+        <v>0.08016877637130802</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02262443438914027</v>
+        <v>0.02953586497890295</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.004219409282700422</v>
       </c>
       <c r="O18">
-        <v>0.05882352941176471</v>
+        <v>0.06329113924050633</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1493212669683258</v>
+        <v>0.1561181434599156</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01288244766505636</v>
+        <v>0.01288855193328279</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2181964573268921</v>
+        <v>0.2145564821834723</v>
       </c>
       <c r="I19">
-        <v>0.1014492753623188</v>
+        <v>0.1053828658074299</v>
       </c>
       <c r="J19">
-        <v>0.3454106280193237</v>
+        <v>0.3479909021986353</v>
       </c>
       <c r="K19">
-        <v>0.09581320450885668</v>
+        <v>0.0978013646702047</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01932367149758454</v>
+        <v>0.01895375284306293</v>
       </c>
       <c r="N19">
-        <v>0.00322061191626409</v>
+        <v>0.003032600454890068</v>
       </c>
       <c r="O19">
-        <v>0.08293075684380032</v>
+        <v>0.08112206216830932</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1207729468599034</v>
+        <v>0.1182714177407127</v>
       </c>
     </row>
   </sheetData>
